--- a/sample-data/ingest-log.xlsx
+++ b/sample-data/ingest-log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://www.sqa.org.uk/sqa/files_ccc/ExamTimetable2020.pdf</t>
   </si>
@@ -40,6 +40,39 @@
   </si>
   <si>
     <t>I100</t>
+  </si>
+  <si>
+    <t>I101</t>
+  </si>
+  <si>
+    <t>https://filestore.aqa.org.uk/admin/t_table_pdf/AQA-TT-GCSE-JUN20-CONFIRMED.PDF</t>
+  </si>
+  <si>
+    <t>AQA Exams - 2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://qualifications.pearson.com/content/dam/pdf/Support/Examination-timetables-for-UK-Edexcel-GCSE/GCSE-Final-2006.xlsx</t>
+  </si>
+  <si>
+    <t>I102</t>
+  </si>
+  <si>
+    <t>Edexcel GCSE Exams - 2020.xlsx</t>
+  </si>
+  <si>
+    <t>I103</t>
+  </si>
+  <si>
+    <t>Edexcel A Level Exams - 2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://qualifications.pearson.com/content/dam/pdf/Support/Examination-timetables/GCE-Final-2006.xlsx</t>
+  </si>
+  <si>
+    <t>I104</t>
+  </si>
+  <si>
+    <t>https://www.ocr.org.uk/Images/546284-june-2020-final-exam-timetable-gcse-cambridge-nationals-entry-level-certificate-and-project-levels-1-2.pdf</t>
   </si>
 </sst>
 </file>
@@ -88,7 +121,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -98,20 +131,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -481,7 +525,64 @@
         <v>43861</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43861</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/sample-data/ingest-log.xlsx
+++ b/sample-data/ingest-log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>https://www.sqa.org.uk/sqa/files_ccc/ExamTimetable2020.pdf</t>
   </si>
@@ -73,12 +73,33 @@
   </si>
   <si>
     <t>https://www.ocr.org.uk/Images/546284-june-2020-final-exam-timetable-gcse-cambridge-nationals-entry-level-certificate-and-project-levels-1-2.pdf</t>
+  </si>
+  <si>
+    <t>I105</t>
+  </si>
+  <si>
+    <t>https://ccea.org.uk/downloads/docs/ccea-asset/Examinations/Final%20GCSE%20Timetable%20Summer%202020.pdf</t>
+  </si>
+  <si>
+    <t>CEA GCSE Exams - 2020.xlsx</t>
+  </si>
+  <si>
+    <t>I106</t>
+  </si>
+  <si>
+    <t>WJEC+Educas GCSE Exams - 2020.xslx</t>
+  </si>
+  <si>
+    <t>OCR Exams - 2020.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -121,7 +142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,6 +153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,10 +161,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -151,6 +173,7 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -485,16 +508,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -507,7 +531,7 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -521,7 +545,7 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>43861</v>
       </c>
     </row>
@@ -532,10 +556,10 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>43861</v>
       </c>
     </row>
@@ -549,7 +573,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>43861</v>
       </c>
     </row>
@@ -563,7 +587,7 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>43861</v>
       </c>
     </row>
@@ -571,17 +595,43 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
-        <v>43861</v>
+      <c r="D6" s="2">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/sample-data/ingest-log.xlsx
+++ b/sample-data/ingest-log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>https://www.sqa.org.uk/sqa/files_ccc/ExamTimetable2020.pdf</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>OCR Exams - 2020.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.wjec.co.uk/exam-officers/Examination_Timetable_2020_Final_update_041219%20(2).pdf?language_id=1</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -162,7 +165,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -511,7 +514,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -626,12 +629,19 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43863</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
